--- a/DivinationApp/bin/Debug/ExplanationData/陽占特徴説明.xlsx
+++ b/DivinationApp/bin/Debug/ExplanationData/陽占特徴説明.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\桑原さんソフト\GitHub\sample\WinFormsApp2\bin\Debug\net5.0-windows\ExplanationData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\桑原さんソフト\GitHub\sample_4.8\DivinationApp_pdf\DivinationApp\bin\Debug\ExplanationData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{456B80F8-2212-4ECB-956B-8B026725CDED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38044503-D1A6-4775-8CE8-FD8879A5CB46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1710" yWindow="2235" windowWidth="16830" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="450" yWindow="570" windowWidth="26760" windowHeight="16830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -341,15 +341,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>419100</xdr:rowOff>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2533650</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>1809750</xdr:rowOff>
+      <xdr:colOff>3357562</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>100230</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -379,8 +379,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1209675" y="9601200"/>
-          <a:ext cx="2076450" cy="1390650"/>
+          <a:off x="1123950" y="9348787"/>
+          <a:ext cx="3186112" cy="2133818"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -414,16 +414,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>476251</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>409576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>2466976</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2228850</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>1876676</xdr:rowOff>
+      <xdr:rowOff>19302</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -446,7 +446,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7962900" y="11439525"/>
+          <a:off x="45458064" y="9601201"/>
           <a:ext cx="1990725" cy="1800476"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -458,16 +458,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>167830</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2686050</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>1689477</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>280988</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>429768</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>2900363</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1951415</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -490,7 +490,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4362450" y="11531155"/>
+          <a:off x="42310051" y="9621393"/>
           <a:ext cx="2619375" cy="1521647"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -870,16 +870,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>238125</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2857843</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>1657548</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>280988</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>452438</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>2738781</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1871861</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -902,7 +902,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1343025" y="11601450"/>
+          <a:off x="39357301" y="9644063"/>
           <a:ext cx="2457793" cy="1419423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1212,6 +1212,432 @@
         <a:xfrm>
           <a:off x="1323975" y="3905250"/>
           <a:ext cx="2541443" cy="1476375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>160244</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>274544</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2865344</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1998569</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="図 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F8A71DA-EDD3-2D36-8AD3-F050B5956703}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15601950" y="9440956"/>
+          <a:ext cx="2705100" cy="1724025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>331694</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>303119</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2398907</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1646331</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="図 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCE558B0-260A-F77D-82CC-BD52A59B1C42}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18731753" y="9469531"/>
+          <a:ext cx="2067213" cy="1343212"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>528357</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>325531</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2385991</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1716375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="図 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF68BA2B-370B-AA2E-E580-9A9E7BC429E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21886769" y="9491943"/>
+          <a:ext cx="1857634" cy="1390844"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>93009</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>229720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2798109</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1953745</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="図 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83FF9585-79EC-CEBC-BA94-03A034541B4F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24409774" y="9396132"/>
+          <a:ext cx="2705100" cy="1724025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>230841</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>269500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>2298054</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1612712</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="図 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67C85F78-4C77-0B8B-BB0C-B8B2384694C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27505959" y="9435912"/>
+          <a:ext cx="2067213" cy="1343212"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>427504</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>291912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>2285138</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1682756</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="図 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EC97257-595F-C1C0-21C6-FD8530832611}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="30660975" y="9458324"/>
+          <a:ext cx="1857634" cy="1390844"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>471487</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>414337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>2547937</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1804987</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB41F711-D5DE-A134-D82D-3F009B22BB0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="33642300" y="9605962"/>
+          <a:ext cx="2076450" cy="1390650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>147638</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>476250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>2689081</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1952625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="図 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B41D8E0-FAEC-B24E-8295-245C0DB3BF5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="36271201" y="9667875"/>
+          <a:ext cx="2541443" cy="1476375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>523875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>2676859</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1895666</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="図 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C5CEA29-3A96-4D9F-A41B-EDA04F142CB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="48220313" y="9715500"/>
+          <a:ext cx="2391109" cy="1371791"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1540,8 +1966,8 @@
   </sheetPr>
   <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1552,6 +1978,7 @@
     <col min="4" max="4" width="43.28515625" customWidth="1"/>
     <col min="5" max="5" width="38.85546875" customWidth="1"/>
     <col min="6" max="6" width="36.5703125" customWidth="1"/>
+    <col min="7" max="22" width="44.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="147.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/DivinationApp/bin/Debug/ExplanationData/陽占特徴説明.xlsx
+++ b/DivinationApp/bin/Debug/ExplanationData/陽占特徴説明.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\桑原さんソフト\GitHub\sample_4.8\DivinationApp_pdf\DivinationApp\bin\Debug\ExplanationData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38044503-D1A6-4775-8CE8-FD8879A5CB46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D479DDF4-85F0-4919-A50F-7D123DEC2972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="450" yWindow="570" windowWidth="26760" windowHeight="16830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -347,9 +347,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>3357562</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>100230</xdr:rowOff>
+      <xdr:colOff>3048000</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>2072442</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -379,8 +379,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1123950" y="9348787"/>
-          <a:ext cx="3186112" cy="2133818"/>
+          <a:off x="1115667" y="9350858"/>
+          <a:ext cx="2876550" cy="1915280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1638,6 +1638,50 @@
         <a:xfrm>
           <a:off x="48220313" y="9715500"/>
           <a:ext cx="2391109" cy="1371791"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>364435</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>455544</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3093121</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1764482</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="図 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B39BFB18-AD00-4B38-87BF-A22C45E9DE34}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1308652" y="11827566"/>
+          <a:ext cx="2728686" cy="1308938"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1966,8 +2010,8 @@
   </sheetPr>
   <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
